--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16215" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16215" windowHeight="6540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="laLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -45,13 +46,19 @@
   </si>
   <si>
     <t>admin@admin.ai</t>
+  </si>
+  <si>
+    <t>admin@email.com</t>
+  </si>
+  <si>
+    <t>admin@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +68,20 @@
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -89,9 +110,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -409,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -450,4 +473,44 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>